--- a/输出结果_兴义.xlsx
+++ b/输出结果_兴义.xlsx
@@ -108,8 +108,8 @@
   <dimension ref="A1:B1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.16796875" customWidth="true"/>
-    <col min="2" max="2" width="11.16796875" customWidth="true"/>
+    <col min="1" max="1" width="19.17578125" customWidth="true"/>
+    <col min="2" max="2" width="11.17578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -129,9 +129,9 @@
   <dimension ref="A1:C3"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.8046875" customWidth="true"/>
-    <col min="2" max="2" width="12.34765625" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="17.7890625" customWidth="true"/>
+    <col min="2" max="2" width="12.328125" customWidth="true"/>
+    <col min="3" max="3" width="2.17578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -176,8 +176,8 @@
   <dimension ref="A1:B2"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.16796875" customWidth="true"/>
-    <col min="2" max="2" width="11.16796875" customWidth="true"/>
+    <col min="1" max="1" width="9.17578125" customWidth="true"/>
+    <col min="2" max="2" width="11.17578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
